--- a/Output/Habitat_Attributes_Ratings_Table_for_WebMap.xlsx
+++ b/Output/Habitat_Attributes_Ratings_Table_for_WebMap.xlsx
@@ -2615,7 +2615,7 @@
     <t xml:space="preserve">Wildhorse 16-1</t>
   </si>
   <si>
-    <t xml:space="preserve">Wildhorse Spring Creek</t>
+    <t xml:space="preserve">Wildhorse Spring Creek DS</t>
   </si>
   <si>
     <t xml:space="preserve">Wildhorse 16-2</t>
@@ -9474,7 +9474,7 @@
         <v>21</v>
       </c>
       <c r="H158" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I158"/>
       <c r="J158"/>
@@ -9516,7 +9516,7 @@
         <v>21</v>
       </c>
       <c r="H159" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I159"/>
       <c r="J159"/>
@@ -11910,7 +11910,7 @@
       <c r="F214"/>
       <c r="G214"/>
       <c r="H214" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I214"/>
       <c r="J214"/>
@@ -14868,7 +14868,7 @@
       <c r="F293"/>
       <c r="G293"/>
       <c r="H293" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I293"/>
       <c r="J293"/>
@@ -15068,7 +15068,7 @@
       <c r="F299"/>
       <c r="G299"/>
       <c r="H299" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I299"/>
       <c r="J299"/>
@@ -16022,7 +16022,7 @@
         <v>20</v>
       </c>
       <c r="H323" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I323" t="s">
         <v>20</v>
@@ -16043,10 +16043,10 @@
         <v>19</v>
       </c>
       <c r="O323" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P323" t="n">
-        <v>0.555555555555556</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="324">
@@ -16072,7 +16072,7 @@
         <v>20</v>
       </c>
       <c r="H324" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I324" t="s">
         <v>21</v>
@@ -16093,10 +16093,10 @@
         <v>21</v>
       </c>
       <c r="O324" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P324" t="n">
-        <v>0.733333333333333</v>
+        <v>0.777777777777778</v>
       </c>
     </row>
     <row r="325">
@@ -16500,7 +16500,7 @@
         <v>21</v>
       </c>
       <c r="H334" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I334"/>
       <c r="J334"/>
@@ -17256,7 +17256,7 @@
         <v>21</v>
       </c>
       <c r="H352" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I352" t="s">
         <v>21</v>
@@ -20276,7 +20276,7 @@
       <c r="F416"/>
       <c r="G416"/>
       <c r="H416" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I416"/>
       <c r="J416"/>
@@ -21106,7 +21106,7 @@
         <v>21</v>
       </c>
       <c r="H437" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I437" t="s">
         <v>20</v>
@@ -21127,10 +21127,10 @@
         <v>19</v>
       </c>
       <c r="O437" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P437" t="n">
-        <v>0.777777777777778</v>
+        <v>0.822222222222222</v>
       </c>
     </row>
     <row r="438">
@@ -21504,7 +21504,7 @@
         <v>20</v>
       </c>
       <c r="H445" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I445" t="s">
         <v>20</v>
@@ -21525,10 +21525,10 @@
         <v>19</v>
       </c>
       <c r="O445" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="P445" t="n">
-        <v>0.488888888888889</v>
+        <v>0.533333333333333</v>
       </c>
     </row>
     <row r="446">
@@ -21826,7 +21826,7 @@
         <v>20</v>
       </c>
       <c r="H452" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I452" t="s">
         <v>20</v>
@@ -22154,7 +22154,7 @@
         <v>19</v>
       </c>
       <c r="H460" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I460" t="s">
         <v>21</v>
@@ -26844,7 +26844,7 @@
         <v>21</v>
       </c>
       <c r="H574" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I574"/>
       <c r="J574"/>
@@ -26884,7 +26884,7 @@
         <v>20</v>
       </c>
       <c r="H575" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I575"/>
       <c r="J575"/>
@@ -28902,7 +28902,7 @@
         <v>20</v>
       </c>
       <c r="H628" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I628" t="s">
         <v>20</v>
@@ -28944,7 +28944,7 @@
         <v>20</v>
       </c>
       <c r="H629" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I629" t="s">
         <v>20</v>
@@ -29264,7 +29264,7 @@
         <v>20</v>
       </c>
       <c r="H637" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I637" t="s">
         <v>20</v>
@@ -30180,7 +30180,7 @@
         <v>21</v>
       </c>
       <c r="H657" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I657" t="s">
         <v>20</v>
@@ -30201,10 +30201,10 @@
         <v>19</v>
       </c>
       <c r="O657" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P657" t="n">
-        <v>0.733333333333333</v>
+        <v>0.777777777777778</v>
       </c>
     </row>
     <row r="658">
